--- a/payments.xlsx
+++ b/payments.xlsx
@@ -1038,7 +1038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
@@ -2868,6 +2868,492 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Sophia Brown</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>32</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:43:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Sophia Miller</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>4555</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:43:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>John Miller</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>5560</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:43:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>4</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Ava Miller</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>3241</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:43:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>5</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Olivia Johnson</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>3400</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:43:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>6</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>James Johnson</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>3400</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:43:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>7</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>John Smith</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>34</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:43:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>8</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Michael Garcia</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>6774</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:43:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Emma Brown</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>3400</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Ava Garcia</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>32</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>11</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Ava Davis</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>34234</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>12</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Ava Smith</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>3100</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>13</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Olivia Brown</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1212</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>14</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Olivia Miller</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>3241</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>15</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Ava Garcia</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>3245</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>16</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Olivia Jones</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1212</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>17</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Michael Miller</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>6774</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>18</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>James Johnson</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>6774</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>19</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Ava Smith</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>4555</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>20</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>James Garcia</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>8987</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>21</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Ava Williams</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>8987</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>22</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Ava Johnson</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>34234</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>23</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>John Johnson</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>8987</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>24</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Sophia Brown</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>3245</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>25</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Sophia Davis</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>3245</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>26</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Michael Williams</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>3400</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>27</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Michael Davis</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>34</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2025-10-05 18:44:54</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
